--- a/errors.xlsx
+++ b/errors.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E224"/>
+  <dimension ref="A2:E225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44101.56305121111</v>
+        <v>44101.56305121528</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44101.56395899029</v>
+        <v>44101.56395899306</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44101.56636808754</v>
+        <v>44101.56636809028</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44101.57441675375</v>
+        <v>44101.57441675926</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44101.57865259499</v>
+        <v>44101.57865259259</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44101.5798839606</v>
+        <v>44101.57988395834</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44101.58155361444</v>
+        <v>44101.58155361111</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44101.58311393536</v>
+        <v>44101.58311393519</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44101.58325973569</v>
+        <v>44101.58325973379</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44101.5850397778</v>
+        <v>44101.58503978009</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44101.58655033768</v>
+        <v>44101.58655033565</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44101.58816848834</v>
+        <v>44101.5881684838</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44101.58901672407</v>
+        <v>44101.58901672454</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44101.58928937794</v>
+        <v>44101.589289375</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44101.59084477654</v>
+        <v>44101.59084478009</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44101.59998465559</v>
+        <v>44101.59998465278</v>
       </c>
     </row>
     <row r="18">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44101.60096221669</v>
+        <v>44101.60096222222</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44101.60182248507</v>
+        <v>44101.60182248842</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44101.60403364532</v>
+        <v>44101.60403364583</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44101.61282574822</v>
+        <v>44101.61282575232</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44101.61358284366</v>
+        <v>44101.61358284723</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44101.61385093235</v>
+        <v>44101.6138509375</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44103.41083414021</v>
+        <v>44103.41083414352</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44103.57131192292</v>
+        <v>44103.5713119213</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44103.57137379943</v>
+        <v>44103.57137379629</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44103.57290219096</v>
+        <v>44103.5729021875</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44103.57303896349</v>
+        <v>44103.57303895833</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44104.20905166864</v>
+        <v>44104.20905166666</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44104.52781097581</v>
+        <v>44104.52781097222</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44104.75213527249</v>
+        <v>44104.75213527778</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44105.15597257771</v>
+        <v>44105.15597258102</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44105.27672178476</v>
+        <v>44105.27672178241</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         </is>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44105.27702853262</v>
+        <v>44105.27702853009</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44105.39232242581</v>
+        <v>44105.39232243055</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44105.39329547872</v>
+        <v>44105.39329547454</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44105.39577410415</v>
+        <v>44105.39577410879</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44105.39605193285</v>
+        <v>44105.39605193287</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44105.39988175324</v>
+        <v>44105.39988174768</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44105.40019658536</v>
+        <v>44105.40019658565</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44105.40659087875</v>
+        <v>44105.40659087963</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44105.66142928125</v>
+        <v>44105.66142928241</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44106.20397098756</v>
+        <v>44106.2039709838</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44106.21351234298</v>
+        <v>44106.21351233796</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44106.24708687832</v>
+        <v>44106.247086875</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44106.41772775788</v>
+        <v>44106.41772775463</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44106.59397860289</v>
+        <v>44106.59397859954</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44106.61774491004</v>
+        <v>44106.61774490741</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44106.63981938991</v>
+        <v>44106.63981938658</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44106.64689489876</v>
+        <v>44106.64689489584</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44106.69164377709</v>
+        <v>44106.69164377315</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44106.78699025696</v>
+        <v>44106.78699025463</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44106.78719594451</v>
+        <v>44106.78719594907</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44107.06187052935</v>
+        <v>44107.06187053241</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44107.34648498522</v>
+        <v>44107.34648498843</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44107.36175436153</v>
+        <v>44107.36175436342</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44107.39809589635</v>
+        <v>44107.39809589121</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44107.40606732282</v>
+        <v>44107.40606732639</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44107.62466059993</v>
+        <v>44107.62466060185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44107.62666318014</v>
+        <v>44107.62666318287</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44107.64188820527</v>
+        <v>44107.64188820602</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44108.44256287454</v>
+        <v>44108.44256287037</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44108.45746888241</v>
+        <v>44108.45746887731</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2248,7 +2248,7 @@
         </is>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44108.61973669518</v>
+        <v>44108.61973668981</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44108.62019770841</v>
+        <v>44108.62019770833</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44108.74382193592</v>
+        <v>44108.74382193287</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44108.80092913438</v>
+        <v>44108.80092913195</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44108.80131635081</v>
+        <v>44108.80131635417</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44108.82572597889</v>
+        <v>44108.8257259838</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44108.82581867775</v>
+        <v>44108.82581868055</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44109.14260668744</v>
+        <v>44109.14260668981</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44109.1483889913</v>
+        <v>44109.14838899305</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         </is>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44109.21423851494</v>
+        <v>44109.21423851852</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44109.53099907125</v>
+        <v>44109.53099907407</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44110.62138573557</v>
+        <v>44110.62138574074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44110.7527591</v>
+        <v>44110.75275909722</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44110.75384696073</v>
+        <v>44110.75384695602</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44110.75385288188</v>
+        <v>44110.75385288194</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44110.90932840695</v>
+        <v>44110.90932840278</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2708,7 +2708,7 @@
         </is>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44111.18948115778</v>
+        <v>44111.18948115741</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44111.43047078416</v>
+        <v>44111.43047078704</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44111.43137976638</v>
+        <v>44111.43137976852</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44111.43147656053</v>
+        <v>44111.4314765625</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44111.43288409925</v>
+        <v>44111.43288409722</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44111.56113279521</v>
+        <v>44111.56113280093</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44111.62292539125</v>
+        <v>44111.62292539352</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44111.68315896865</v>
+        <v>44111.68315896991</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44111.68868830601</v>
+        <v>44111.68868831018</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44111.80868525676</v>
+        <v>44111.80868525463</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
         </is>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44112.16759878375</v>
+        <v>44112.16759878472</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44112.55780197031</v>
+        <v>44112.5578019676</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44112.55780505738</v>
+        <v>44112.55780505787</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44112.55870894137</v>
+        <v>44112.55870894676</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44112.59386464726</v>
+        <v>44112.59386465278</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44112.60677979054</v>
+        <v>44112.60677979167</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44112.60884970414</v>
+        <v>44112.60884969907</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44112.61095066207</v>
+        <v>44112.61095065972</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44112.65089861866</v>
+        <v>44112.65089862268</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44112.68182166549</v>
+        <v>44112.68182166667</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         </is>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44112.69563800479</v>
+        <v>44112.69563800926</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44112.74853810212</v>
+        <v>44112.74853810185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44112.77700586891</v>
+        <v>44112.77700586805</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         </is>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44112.78177840734</v>
+        <v>44112.78177840278</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44112.8095817983</v>
+        <v>44112.80958179398</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         </is>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44113.3473772365</v>
+        <v>44113.3473772338</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44113.35716360597</v>
+        <v>44113.35716361111</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         </is>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44113.35756168139</v>
+        <v>44113.35756167824</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44113.38688389567</v>
+        <v>44113.38688390046</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44113.38741375934</v>
+        <v>44113.38741376157</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44113.39454004846</v>
+        <v>44113.3945400463</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44113.45849209815</v>
+        <v>44113.45849209491</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44113.46002214718</v>
+        <v>44113.46002215278</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44113.46146813294</v>
+        <v>44113.46146813657</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44113.46215584885</v>
+        <v>44113.46215584491</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44113.46680844873</v>
+        <v>44113.46680844908</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="C116" s="1" t="n">
-        <v>44113.47333623955</v>
+        <v>44113.47333623843</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="C117" s="1" t="n">
-        <v>44113.47852765509</v>
+        <v>44113.47852765046</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         </is>
       </c>
       <c r="C118" s="1" t="n">
-        <v>44113.47888922057</v>
+        <v>44113.47888922453</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="C119" s="1" t="n">
-        <v>44113.51099638905</v>
+        <v>44113.51099638889</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C120" s="1" t="n">
-        <v>44113.67164369449</v>
+        <v>44113.67164369213</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C121" s="1" t="n">
-        <v>44113.71251465385</v>
+        <v>44113.71251465278</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="C122" s="1" t="n">
-        <v>44113.86739113191</v>
+        <v>44113.86739113426</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="C123" s="1" t="n">
-        <v>44114.32055112492</v>
+        <v>44114.32055112268</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="C124" s="1" t="n">
-        <v>44114.33658893497</v>
+        <v>44114.33658893518</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -3943,7 +3943,7 @@
         </is>
       </c>
       <c r="C125" s="1" t="n">
-        <v>44114.3532869448</v>
+        <v>44114.35328694445</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="C126" s="1" t="n">
-        <v>44114.38439195237</v>
+        <v>44114.38439195602</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="C127" s="1" t="n">
-        <v>44114.38519893388</v>
+        <v>44114.38519893518</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="C128" s="1" t="n">
-        <v>44114.57958093369</v>
+        <v>44114.5795809375</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="C129" s="1" t="n">
-        <v>44114.70946433968</v>
+        <v>44114.70946434027</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="C130" s="1" t="n">
-        <v>44114.83438782376</v>
+        <v>44114.83438782408</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="C131" s="1" t="n">
-        <v>44115.26961485404</v>
+        <v>44115.26961484954</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         </is>
       </c>
       <c r="C132" s="1" t="n">
-        <v>44115.39952215498</v>
+        <v>44115.39952215278</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="C133" s="1" t="n">
-        <v>44115.61481088742</v>
+        <v>44115.6148108912</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         </is>
       </c>
       <c r="C134" s="1" t="n">
-        <v>44115.66126412368</v>
+        <v>44115.66126412037</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
         </is>
       </c>
       <c r="C135" s="1" t="n">
-        <v>44115.67706896445</v>
+        <v>44115.6770689699</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C136" s="1" t="n">
-        <v>44115.68552001228</v>
+        <v>44115.68552001158</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="C137" s="1" t="n">
-        <v>44115.68622810095</v>
+        <v>44115.68622810185</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         </is>
       </c>
       <c r="C138" s="1" t="n">
-        <v>44115.68648637979</v>
+        <v>44115.68648637732</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="C139" s="1" t="n">
-        <v>44116.15557351649</v>
+        <v>44116.15557351852</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         </is>
       </c>
       <c r="C140" s="1" t="n">
-        <v>44116.25338299536</v>
+        <v>44116.25338299768</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="C141" s="1" t="n">
-        <v>44116.28667799206</v>
+        <v>44116.28667799768</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="C142" s="1" t="n">
-        <v>44116.28752336044</v>
+        <v>44116.28752335648</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         </is>
       </c>
       <c r="C143" s="1" t="n">
-        <v>44116.6274106563</v>
+        <v>44116.62741065972</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="C144" s="1" t="n">
-        <v>44116.70289699009</v>
+        <v>44116.70289699074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         </is>
       </c>
       <c r="C145" s="1" t="n">
-        <v>44116.70295378273</v>
+        <v>44116.70295378472</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C146" s="1" t="n">
-        <v>44116.70380200978</v>
+        <v>44116.70380201389</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="C147" s="1" t="n">
-        <v>44116.7049564678</v>
+        <v>44116.7049564699</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         </is>
       </c>
       <c r="C148" s="1" t="n">
-        <v>44116.727676829</v>
+        <v>44116.7276768287</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         </is>
       </c>
       <c r="C149" s="1" t="n">
-        <v>44116.80279877962</v>
+        <v>44116.80279878472</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         </is>
       </c>
       <c r="C150" s="1" t="n">
-        <v>44116.85712178222</v>
+        <v>44116.85712178241</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         </is>
       </c>
       <c r="C151" s="1" t="n">
-        <v>44116.99602367109</v>
+        <v>44116.99602366898</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4681,7 +4681,7 @@
         </is>
       </c>
       <c r="C152" s="1" t="n">
-        <v>44117.49016833119</v>
+        <v>44117.49016833333</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         </is>
       </c>
       <c r="C153" s="1" t="n">
-        <v>44117.53582481124</v>
+        <v>44117.53582481481</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="C154" s="1" t="n">
-        <v>44117.60508833105</v>
+        <v>44117.60508833333</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         </is>
       </c>
       <c r="C155" s="1" t="n">
-        <v>44117.78944673942</v>
+        <v>44117.78944673611</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="C156" s="1" t="n">
-        <v>44118.03124986673</v>
+        <v>44118.03124986111</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="C157" s="1" t="n">
-        <v>44118.08208469132</v>
+        <v>44118.0820846875</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="C158" s="1" t="n">
-        <v>44118.21346888674</v>
+        <v>44118.21346888889</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="C159" s="1" t="n">
-        <v>44118.37476236703</v>
+        <v>44118.37476237269</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="C160" s="1" t="n">
-        <v>44118.73939135672</v>
+        <v>44118.73939135417</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4929,7 +4929,7 @@
         </is>
       </c>
       <c r="C161" s="1" t="n">
-        <v>44118.74077098553</v>
+        <v>44118.74077098379</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4958,7 +4958,7 @@
         </is>
       </c>
       <c r="C162" s="1" t="n">
-        <v>44118.88209736257</v>
+        <v>44118.88209736111</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="C163" s="1" t="n">
-        <v>44119.07982476919</v>
+        <v>44119.07982476852</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="C164" s="1" t="n">
-        <v>44119.08184532067</v>
+        <v>44119.08184532407</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         </is>
       </c>
       <c r="C165" s="1" t="n">
-        <v>44119.08297513793</v>
+        <v>44119.08297513889</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
         </is>
       </c>
       <c r="C167" s="1" t="n">
-        <v>44119.68205195763</v>
+        <v>44119.68205195602</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="C168" s="1" t="n">
-        <v>44119.68494410507</v>
+        <v>44119.6849441088</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="C169" s="1" t="n">
-        <v>44119.82585617762</v>
+        <v>44119.82585618056</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="C170" s="1" t="n">
-        <v>44119.94032710356</v>
+        <v>44119.94032710648</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="C171" s="1" t="n">
-        <v>44119.94347749864</v>
+        <v>44119.9434775</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="C172" s="1" t="n">
-        <v>44119.94417101454</v>
+        <v>44119.94417101852</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="C173" s="1" t="n">
-        <v>44120.21390054285</v>
+        <v>44120.21390054398</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="C174" s="1" t="n">
-        <v>44120.23739756352</v>
+        <v>44120.23739755787</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="C175" s="1" t="n">
-        <v>44120.41060779463</v>
+        <v>44120.41060778935</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="C176" s="1" t="n">
-        <v>44120.51814322538</v>
+        <v>44120.51814322916</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="C177" s="1" t="n">
-        <v>44120.52363527312</v>
+        <v>44120.52363527778</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         </is>
       </c>
       <c r="C178" s="1" t="n">
-        <v>44120.52503257545</v>
+        <v>44120.52503258102</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="C179" s="1" t="n">
-        <v>44120.55846491015</v>
+        <v>44120.55846490741</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="C180" s="1" t="n">
-        <v>44120.55965681439</v>
+        <v>44120.55965681713</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="C181" s="1" t="n">
-        <v>44120.61104060032</v>
+        <v>44120.61104060185</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         </is>
       </c>
       <c r="C182" s="1" t="n">
-        <v>44121.03131412598</v>
+        <v>44121.03131412037</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="C183" s="1" t="n">
-        <v>44121.17718209553</v>
+        <v>44121.17718209491</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         </is>
       </c>
       <c r="C184" s="1" t="n">
-        <v>44121.18113875632</v>
+        <v>44121.18113876157</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         </is>
       </c>
       <c r="C185" s="1" t="n">
-        <v>44121.18442496026</v>
+        <v>44121.18442496528</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         </is>
       </c>
       <c r="C186" s="1" t="n">
-        <v>44121.18963371456</v>
+        <v>44121.18963371528</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         </is>
       </c>
       <c r="C187" s="1" t="n">
-        <v>44121.33656770449</v>
+        <v>44121.33656770833</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="C188" s="1" t="n">
-        <v>44121.38232147371</v>
+        <v>44121.38232146991</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         </is>
       </c>
       <c r="C189" s="1" t="n">
-        <v>44121.50952572428</v>
+        <v>44121.50952572917</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         </is>
       </c>
       <c r="C190" s="1" t="n">
-        <v>44121.50975073275</v>
+        <v>44121.50975072916</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -5759,7 +5759,7 @@
         </is>
       </c>
       <c r="C191" s="1" t="n">
-        <v>44121.57320582375</v>
+        <v>44121.57320582176</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C192" s="1" t="n">
-        <v>44121.57327874062</v>
+        <v>44121.57327873843</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="C193" s="1" t="n">
-        <v>44121.57333560452</v>
+        <v>44121.57333560185</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="C194" s="1" t="n">
-        <v>44121.57341023891</v>
+        <v>44121.57341024306</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="C195" s="1" t="n">
-        <v>44121.642714283</v>
+        <v>44121.64271428241</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="C196" s="1" t="n">
-        <v>44121.64739377736</v>
+        <v>44121.64739377315</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="C197" s="1" t="n">
-        <v>44121.73844188084</v>
+        <v>44121.73844188658</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="C198" s="1" t="n">
-        <v>44121.73876478639</v>
+        <v>44121.73876479167</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="C199" s="1" t="n">
-        <v>44121.73975976722</v>
+        <v>44121.73975976852</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="C200" s="1" t="n">
-        <v>44121.7412011304</v>
+        <v>44121.74120113426</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="C201" s="1" t="n">
-        <v>44121.7422822241</v>
+        <v>44121.74228222222</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="C202" s="1" t="n">
-        <v>44121.74255613348</v>
+        <v>44121.74255613426</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="C203" s="1" t="n">
-        <v>44121.74395471594</v>
+        <v>44121.74395471065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="C204" s="1" t="n">
-        <v>44121.74536065319</v>
+        <v>44121.74536064815</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         </is>
       </c>
       <c r="C205" s="1" t="n">
-        <v>44121.74968005954</v>
+        <v>44121.74968005787</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         </is>
       </c>
       <c r="C206" s="1" t="n">
-        <v>44121.89980905277</v>
+        <v>44121.89980905093</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="C207" s="1" t="n">
-        <v>44122.26277507384</v>
+        <v>44122.26277506944</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         </is>
       </c>
       <c r="C208" s="1" t="n">
-        <v>44122.56866520808</v>
+        <v>44122.56866520833</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -6251,7 +6251,7 @@
         </is>
       </c>
       <c r="C209" s="1" t="n">
-        <v>44122.63399781878</v>
+        <v>44122.63399782407</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         </is>
       </c>
       <c r="C210" s="1" t="n">
-        <v>44122.64269548585</v>
+        <v>44122.64269548611</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         </is>
       </c>
       <c r="C211" s="1" t="n">
-        <v>44122.78592869717</v>
+        <v>44122.78592869213</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="C212" s="1" t="n">
-        <v>44122.7908011744</v>
+        <v>44122.79080116898</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="C213" s="1" t="n">
-        <v>44123.37397108239</v>
+        <v>44123.37397108796</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="C214" s="1" t="n">
-        <v>44123.47819793001</v>
+        <v>44123.47819792824</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         </is>
       </c>
       <c r="C215" s="1" t="n">
-        <v>44123.50550551185</v>
+        <v>44123.50550550926</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         </is>
       </c>
       <c r="C216" s="1" t="n">
-        <v>44123.61489653208</v>
+        <v>44123.61489652778</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C217" s="1" t="n">
-        <v>44124.21019742327</v>
+        <v>44124.21019741898</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="C218" s="1" t="n">
-        <v>44124.46475178339</v>
+        <v>44124.46475178241</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="C219" s="1" t="n">
-        <v>44124.58104464595</v>
+        <v>44124.58104464121</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="C220" s="1" t="n">
-        <v>44124.58112956624</v>
+        <v>44124.58112957176</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         </is>
       </c>
       <c r="C221" s="1" t="n">
-        <v>44124.58282635617</v>
+        <v>44124.58282635417</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="C222" s="1" t="n">
-        <v>44124.58288466087</v>
+        <v>44124.58288466435</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="C223" s="1" t="n">
-        <v>44124.58353743592</v>
+        <v>44124.58353743055</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="C224" s="1" t="n">
-        <v>44124.58787016905</v>
+        <v>44124.58787017361</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -6653,6 +6653,30 @@
   File "/var/www/techniqo/techniqo/technicals/views.py", line 1905, in triggers
     if 30 &gt;= float(str(sheet.cell(i, column_index_from_string('W')).value)) &gt; 0 and str(
 ValueError: could not convert string to float: 'None'
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>list index out of range</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>/scanner/techscreen/</t>
+        </is>
+      </c>
+      <c r="C225" s="1" t="n">
+        <v>44468.67854344888</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "F:\My_projects\Techniqo_heroku\scanner\views.py", line 65, in techscreen
+    parameter_entry_str = inter[1]
+IndexError: list index out of range
 </t>
         </is>
       </c>
